--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1246172.00431709</v>
+        <v>1213890.600786208</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584555</v>
+        <v>6486630.972584554</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>213.5943301702515</v>
+        <v>128.1111533252754</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.22810184760115</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>53.76397372915823</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>50.53246835568724</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.6062992654567</v>
@@ -1660,7 +1660,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>91.51006707873117</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>63.92264786389057</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
         <v>93.13436112172582</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>30.12078641210115</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.7747622013465</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>87.85732732141487</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>196.2284480845081</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>63.92264786389057</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172582</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.16185756382603</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>15.81373631978344</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.67561109252974</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>131.201733493796</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>95.09008317442006</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.5666756780476</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>263.599434548008</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>165.6407165444716</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>148.9903857293489</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>186.1954685888432</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.8850675899284</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>247.5167973448268</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>211.7063916241145</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
@@ -2733,7 +2733,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>41.17526981246121</v>
       </c>
       <c r="V28" t="n">
-        <v>206.4562467960196</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>247.5167973448263</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>247.516797344826</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.22810184760161</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>192.3545358145021</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>228.0131945786464</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>148.9903857293485</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>25.44192183746208</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>236.6747382584659</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9795489138552</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>216.5101222297662</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.9936598687424</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>51.98496085879815</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>127.7180846613019</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>223.475776536087</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>145.8251726500544</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>134.2395953018566</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.73922240594349</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>127.0271970480199</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>208.763098224227</v>
+        <v>113.3161636997958</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128684</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>21.69126064627761</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
         <v>21.30239922246435</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>183.6056453233877</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>170.8629698603932</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>44.29534015168834</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
@@ -4036,7 +4036,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>325.1484201799432</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>42.99365986874195</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.9469826428689</v>
+        <v>84.806281389885</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>93.19857745794052</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>225.8559034447531</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1009.623628790516</v>
+        <v>1310.63818471021</v>
       </c>
       <c r="C11" t="n">
-        <v>793.8717801336968</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="D11" t="n">
-        <v>435.6060815269462</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="E11" t="n">
-        <v>49.81782892870201</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F11" t="n">
-        <v>49.81782892870201</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G11" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H11" t="n">
         <v>49.81782892870201</v>
@@ -5041,25 +5041,25 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549163</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N11" t="n">
         <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q11" t="n">
         <v>2474.446703561748</v>
@@ -5071,22 +5071,22 @@
         <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2490.891446435101</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>2490.891446435101</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="V11" t="n">
-        <v>2159.82855909153</v>
+        <v>1697.238024774331</v>
       </c>
       <c r="W11" t="n">
-        <v>2159.82855909153</v>
+        <v>1697.238024774331</v>
       </c>
       <c r="X11" t="n">
-        <v>1786.36280083045</v>
+        <v>1697.238024774331</v>
       </c>
       <c r="Y11" t="n">
-        <v>1396.223468854638</v>
+        <v>1697.238024774331</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>109.2358024440161</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621915</v>
+        <v>550.7659925046443</v>
       </c>
       <c r="L12" t="n">
-        <v>576.9096910448541</v>
+        <v>838.7302756873069</v>
       </c>
       <c r="M12" t="n">
-        <v>932.3072952935257</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N12" t="n">
-        <v>1311.519861523831</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O12" t="n">
-        <v>1636.205479237587</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P12" t="n">
         <v>2149.150088787598</v>
@@ -5147,10 +5147,10 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
         <v>2004.519648147148</v>
@@ -5223,25 +5223,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1531.212184520481</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1334.12074489053</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.028823740345</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U13" t="n">
-        <v>821.9090380695668</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V13" t="n">
-        <v>567.22454986368</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W13" t="n">
-        <v>277.8073798267193</v>
+        <v>498.5999589702495</v>
       </c>
       <c r="X13" t="n">
-        <v>49.81782892870201</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y13" t="n">
         <v>49.81782892870201</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1156.03532713978</v>
+        <v>1601.238393600532</v>
       </c>
       <c r="C14" t="n">
-        <v>1156.03532713978</v>
+        <v>1232.275876660121</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.03532713978</v>
+        <v>1232.275876660121</v>
       </c>
       <c r="E14" t="n">
-        <v>770.247074541536</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F14" t="n">
         <v>770.247074541536</v>
@@ -5308,22 +5308,22 @@
         <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2272.409072646786</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U14" t="n">
-        <v>2272.409072646786</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V14" t="n">
-        <v>2272.409072646786</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="W14" t="n">
-        <v>1919.640417376672</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="X14" t="n">
-        <v>1546.174659115592</v>
+        <v>1991.377725576344</v>
       </c>
       <c r="Y14" t="n">
-        <v>1156.03532713978</v>
+        <v>1601.238393600532</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
@@ -5357,52 +5357,52 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>550.7659925046444</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L15" t="n">
-        <v>838.7302756873071</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.127879935979</v>
+        <v>1057.137420280531</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.340446166284</v>
+        <v>1436.349986510836</v>
       </c>
       <c r="O15" t="n">
-        <v>1898.026063880041</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787598</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R15" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218.7540118566089</v>
+        <v>354.9094538771789</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870201</v>
+        <v>354.9094538771789</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870201</v>
+        <v>354.9094538771789</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870201</v>
+        <v>354.9094538771789</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870201</v>
+        <v>354.9094538771789</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870201</v>
+        <v>186.8964393174975</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870201</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
         <v>49.81782892870201</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U16" t="n">
-        <v>1393.286264971244</v>
+        <v>1019.231957811323</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.601776765357</v>
+        <v>764.5474696054359</v>
       </c>
       <c r="W16" t="n">
-        <v>849.1846067283961</v>
+        <v>764.5474696054359</v>
       </c>
       <c r="X16" t="n">
-        <v>621.1950558303788</v>
+        <v>536.5579187074186</v>
       </c>
       <c r="Y16" t="n">
-        <v>400.4024766868487</v>
+        <v>536.5579187074186</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1303.488880017119</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C17" t="n">
-        <v>1303.488880017119</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D17" t="n">
-        <v>945.2231814103684</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E17" t="n">
-        <v>945.2231814103684</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F17" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
@@ -5536,31 +5536,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U17" t="n">
-        <v>2067.09397025401</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="V17" t="n">
-        <v>2067.09397025401</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="W17" t="n">
-        <v>2067.09397025401</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="X17" t="n">
-        <v>1693.628211992931</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y17" t="n">
-        <v>1303.488880017119</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
@@ -5594,7 +5594,7 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>119.1040605898642</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
         <v>560.6342506504925</v>
@@ -5627,19 +5627,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>918.37904818882</v>
+        <v>501.0133639770684</v>
       </c>
       <c r="C19" t="n">
-        <v>918.37904818882</v>
+        <v>495.7993664378502</v>
       </c>
       <c r="D19" t="n">
-        <v>768.2624087764842</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I19" t="n">
         <v>49.81782892870201</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U19" t="n">
-        <v>1173.063536394707</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V19" t="n">
-        <v>918.37904818882</v>
+        <v>1131.443958848856</v>
       </c>
       <c r="W19" t="n">
-        <v>918.37904818882</v>
+        <v>1131.443958848856</v>
       </c>
       <c r="X19" t="n">
-        <v>918.37904818882</v>
+        <v>903.4544079508382</v>
       </c>
       <c r="Y19" t="n">
-        <v>918.37904818882</v>
+        <v>682.6618288073081</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>418.7803458691137</v>
+        <v>1378.057192839785</v>
       </c>
       <c r="C20" t="n">
-        <v>49.81782892870201</v>
+        <v>1009.094675899373</v>
       </c>
       <c r="D20" t="n">
-        <v>49.81782892870201</v>
+        <v>1009.094675899373</v>
       </c>
       <c r="E20" t="n">
-        <v>49.81782892870201</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870201</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
         <v>49.81782892870201</v>
@@ -5752,16 +5752,16 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819839</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799494</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549159</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
         <v>1613.248129085908</v>
@@ -5770,7 +5770,7 @@
         <v>2002.031077317525</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q20" t="n">
         <v>2474.446703561748</v>
@@ -5779,25 +5779,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520225</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176654</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W20" t="n">
-        <v>1218.42140690654</v>
+        <v>2138.122791164986</v>
       </c>
       <c r="X20" t="n">
-        <v>844.9556486454605</v>
+        <v>1764.657032903906</v>
       </c>
       <c r="Y20" t="n">
-        <v>454.8163166696488</v>
+        <v>1764.657032903906</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870201</v>
@@ -5834,25 +5834,25 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>531.3276987466004</v>
+        <v>675.5961174916491</v>
       </c>
       <c r="L21" t="n">
-        <v>819.2919819292631</v>
+        <v>963.5604006743117</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.689586177935</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.185219170622</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O21" t="n">
-        <v>2115.87083688438</v>
+        <v>2022.856188867046</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.126603646089</v>
+        <v>2264.111955628755</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435101</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1065.416094328262</v>
+        <v>832.7485639254385</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>663.8123809975316</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870201</v>
@@ -5943,19 +5943,19 @@
         <v>1609.220368204927</v>
       </c>
       <c r="U22" t="n">
-        <v>1320.100582534149</v>
+        <v>1342.958313105929</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.416094328262</v>
+        <v>1342.958313105929</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.416094328262</v>
+        <v>1053.541143068968</v>
       </c>
       <c r="X22" t="n">
-        <v>1065.416094328262</v>
+        <v>1053.541143068968</v>
       </c>
       <c r="Y22" t="n">
-        <v>1065.416094328262</v>
+        <v>832.7485639254385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1804.463346023161</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C23" t="n">
-        <v>1804.463346023161</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.149490927736</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E23" t="n">
-        <v>1251.361238329491</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F23" t="n">
-        <v>840.3753335398836</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879071</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
         <v>182.6484035402487</v>
@@ -6001,16 +6001,16 @@
         <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.50382727579</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6022,19 +6022,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>2040.567846966729</v>
       </c>
       <c r="Y23" t="n">
-        <v>2191.063186087283</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>552.2387424629096</v>
+        <v>634.2717485637554</v>
       </c>
       <c r="L24" t="n">
-        <v>840.2030256455723</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.600629894244</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N24" t="n">
-        <v>1574.813196124549</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O24" t="n">
-        <v>1899.498813838306</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
         <v>2222.787586700861</v>
@@ -6095,10 +6095,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1005.126405072138</v>
+        <v>814.1213929064154</v>
       </c>
       <c r="C25" t="n">
-        <v>1005.126405072138</v>
+        <v>645.1852099785085</v>
       </c>
       <c r="D25" t="n">
-        <v>1005.126405072138</v>
+        <v>495.0685705661728</v>
       </c>
       <c r="E25" t="n">
-        <v>1005.126405072138</v>
+        <v>347.1554769837796</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072138</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072138</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198212</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607686</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050974</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442038</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>2367.437504718412</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>2179.36127382059</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U25" t="n">
-        <v>1890.241488149812</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="V25" t="n">
-        <v>1635.556999943925</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.556999943925</v>
+        <v>814.1213929064154</v>
       </c>
       <c r="X25" t="n">
-        <v>1407.567449045908</v>
+        <v>814.1213929064154</v>
       </c>
       <c r="Y25" t="n">
-        <v>1186.774869902378</v>
+        <v>814.1213929064154</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1414.32401404735</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.361497106938</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="D26" t="n">
-        <v>687.095798500188</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="E26" t="n">
-        <v>301.3075459019438</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="F26" t="n">
-        <v>301.3075459019438</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696727</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H26" t="n">
         <v>51.29057888696727</v>
@@ -6226,25 +6226,25 @@
         <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382141</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131807</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.50382727579</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2300.820077921115</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
         <v>2548.084201475011</v>
@@ -6256,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2101.938410031165</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>1888.093570006807</v>
       </c>
       <c r="W26" t="n">
-        <v>2564.528944348363</v>
+        <v>1535.324914736693</v>
       </c>
       <c r="X26" t="n">
-        <v>2191.063186087284</v>
+        <v>1161.859156475613</v>
       </c>
       <c r="Y26" t="n">
-        <v>1800.923854111472</v>
+        <v>771.7198244998012</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204568</v>
+        <v>634.2717485637554</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031195</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M27" t="n">
-        <v>933.7800452517913</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N27" t="n">
-        <v>1554.787421071423</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O27" t="n">
-        <v>2189.508334797642</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559352</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.117996141784</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1322.114370230722</v>
+        <v>938.6713416626563</v>
       </c>
       <c r="C28" t="n">
-        <v>1322.114370230722</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="D28" t="n">
-        <v>1322.114370230722</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E28" t="n">
-        <v>1322.114370230722</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F28" t="n">
-        <v>1322.114370230722</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G28" t="n">
-        <v>1154.10135567104</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072138</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>2460.751759255489</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.660319625537</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.568398475353</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.448612804575</v>
+        <v>1569.101936534443</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.906949374252</v>
+        <v>1569.101936534443</v>
       </c>
       <c r="W28" t="n">
-        <v>1542.906949374252</v>
+        <v>1569.101936534443</v>
       </c>
       <c r="X28" t="n">
-        <v>1542.906949374252</v>
+        <v>1341.112385636426</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.114370230722</v>
+        <v>1120.319806492896</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.307047032374</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C29" t="n">
-        <v>795.344530091962</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D29" t="n">
-        <v>437.0788314852115</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="E29" t="n">
-        <v>51.29057888696726</v>
+        <v>301.3075459019433</v>
       </c>
       <c r="F29" t="n">
         <v>51.29057888696726</v>
@@ -6463,28 +6463,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209935</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382141</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131807</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153922</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6502,13 +6502,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2314.511977333387</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.046219072307</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y29" t="n">
-        <v>1550.906887096495</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1179492371862</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8275546553617</v>
+        <v>634.271748563755</v>
       </c>
       <c r="L30" t="n">
-        <v>617.7918378380243</v>
+        <v>922.2360317464177</v>
       </c>
       <c r="M30" t="n">
-        <v>1252.512751564244</v>
+        <v>1277.633635995089</v>
       </c>
       <c r="N30" t="n">
-        <v>1887.233665290464</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004221</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1005.126405072138</v>
+        <v>620.7602081358474</v>
       </c>
       <c r="C31" t="n">
-        <v>1005.126405072138</v>
+        <v>620.7602081358474</v>
       </c>
       <c r="D31" t="n">
-        <v>1005.126405072138</v>
+        <v>620.7602081358474</v>
       </c>
       <c r="E31" t="n">
-        <v>1005.126405072138</v>
+        <v>472.8471145534543</v>
       </c>
       <c r="F31" t="n">
-        <v>1005.126405072138</v>
+        <v>325.9571670555439</v>
       </c>
       <c r="G31" t="n">
-        <v>1005.126405072138</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="H31" t="n">
-        <v>1005.126405072138</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I31" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>1028.755856198212</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K31" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M31" t="n">
-        <v>1765.288445607686</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N31" t="n">
-        <v>2060.175706050974</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O31" t="n">
-        <v>2316.535524442038</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P31" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>2486.520760663917</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>2289.429321033966</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T31" t="n">
-        <v>2066.337399883781</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U31" t="n">
-        <v>1777.217614213003</v>
+        <v>1312.618422146578</v>
       </c>
       <c r="V31" t="n">
-        <v>1522.533126007116</v>
+        <v>1312.618422146578</v>
       </c>
       <c r="W31" t="n">
-        <v>1233.115955970155</v>
+        <v>1023.201252109617</v>
       </c>
       <c r="X31" t="n">
-        <v>1005.126405072138</v>
+        <v>1023.201252109617</v>
       </c>
       <c r="Y31" t="n">
-        <v>1005.126405072138</v>
+        <v>802.4086729660871</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1061.555358777235</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C32" t="n">
-        <v>692.5928418368237</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D32" t="n">
-        <v>692.5928418368237</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>692.5928418368237</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>281.6069370472161</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6703,25 +6703,25 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>437.363742218959</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L32" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M32" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O32" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P32" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6733,19 +6733,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="W32" t="n">
-        <v>2211.760289078249</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="X32" t="n">
-        <v>1838.294530817169</v>
+        <v>2040.567846966729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1448.155198841357</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>150.1179492371862</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>329.8275546553617</v>
+        <v>656.6826967703341</v>
       </c>
       <c r="L33" t="n">
-        <v>617.7918378380243</v>
+        <v>944.6469799529968</v>
       </c>
       <c r="M33" t="n">
-        <v>1252.512751564244</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1887.233665290464</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004221</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1644.681179439615</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="C34" t="n">
-        <v>1475.744996511708</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="D34" t="n">
-        <v>1325.628357099373</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E34" t="n">
-        <v>1177.71526351698</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F34" t="n">
-        <v>1030.825316019069</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G34" t="n">
-        <v>1030.825316019069</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="H34" t="n">
-        <v>1030.825316019069</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198212</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607686</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050974</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442038</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="V34" t="n">
-        <v>2564.528944348363</v>
+        <v>1158.917190327354</v>
       </c>
       <c r="W34" t="n">
-        <v>2275.111774311402</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="X34" t="n">
-        <v>2047.122223413385</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="Y34" t="n">
-        <v>1826.329644269855</v>
+        <v>919.8517981470852</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>454.8163166696484</v>
+        <v>1406.729042426852</v>
       </c>
       <c r="C35" t="n">
-        <v>454.8163166696484</v>
+        <v>1037.76652548644</v>
       </c>
       <c r="D35" t="n">
-        <v>454.8163166696484</v>
+        <v>679.5008268796896</v>
       </c>
       <c r="E35" t="n">
-        <v>454.8163166696484</v>
+        <v>679.5008268796896</v>
       </c>
       <c r="F35" t="n">
-        <v>454.8163166696484</v>
+        <v>268.5149220900821</v>
       </c>
       <c r="G35" t="n">
-        <v>118.4733379687844</v>
+        <v>268.5149220900821</v>
       </c>
       <c r="H35" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I35" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
@@ -6952,37 +6952,37 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
         <v>2299.34732796285</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326146</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U35" t="n">
-        <v>1902.252949520225</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="V35" t="n">
-        <v>1571.190062176654</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="W35" t="n">
-        <v>1218.42140690654</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="X35" t="n">
-        <v>844.9556486454601</v>
+        <v>1406.729042426852</v>
       </c>
       <c r="Y35" t="n">
-        <v>454.8163166696484</v>
+        <v>1406.729042426852</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416511</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605241</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992729</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938174</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207023</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005796</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H36" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I36" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>550.7659925046444</v>
+        <v>675.5961174916491</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397339</v>
+        <v>1078.985996898225</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288406</v>
+        <v>1434.383601146897</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.619652518711</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232468</v>
+        <v>2138.281785090959</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994177</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
         <v>2354.581362957455</v>
@@ -7049,19 +7049,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W36" t="n">
         <v>1442.965435232206</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1968.9863093469</v>
+        <v>718.2687569237733</v>
       </c>
       <c r="C37" t="n">
-        <v>1800.050126418993</v>
+        <v>549.3325739958664</v>
       </c>
       <c r="D37" t="n">
-        <v>1649.933487006657</v>
+        <v>399.2159345835306</v>
       </c>
       <c r="E37" t="n">
-        <v>1502.020393424264</v>
+        <v>251.3028410011375</v>
       </c>
       <c r="F37" t="n">
-        <v>1355.130445926354</v>
+        <v>251.3028410011375</v>
       </c>
       <c r="G37" t="n">
-        <v>1187.117431366672</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H37" t="n">
-        <v>1038.14248076777</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
-        <v>955.1183582849494</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K37" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M37" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N37" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>2387.114261342225</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>2387.114261342225</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T37" t="n">
-        <v>2387.114261342225</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>2097.994475671447</v>
+        <v>899.917221754013</v>
       </c>
       <c r="V37" t="n">
-        <v>2097.994475671447</v>
+        <v>899.917221754013</v>
       </c>
       <c r="W37" t="n">
-        <v>2097.994475671447</v>
+        <v>899.917221754013</v>
       </c>
       <c r="X37" t="n">
-        <v>1968.9863093469</v>
+        <v>899.917221754013</v>
       </c>
       <c r="Y37" t="n">
-        <v>1968.9863093469</v>
+        <v>899.917221754013</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1721.11835605569</v>
+        <v>1460.566478589246</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.155839115278</v>
+        <v>1460.566478589246</v>
       </c>
       <c r="D38" t="n">
-        <v>993.890140508528</v>
+        <v>1102.300779982495</v>
       </c>
       <c r="E38" t="n">
-        <v>608.1018879102837</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>197.1159831206762</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H38" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I38" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J38" t="n">
         <v>181.1756535819834</v>
@@ -7189,7 +7189,7 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
         <v>2299.34732796285</v>
@@ -7198,28 +7198,28 @@
         <v>2474.446703561747</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.257688031502</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="V38" t="n">
-        <v>2111.257688031502</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="W38" t="n">
-        <v>2111.257688031502</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="X38" t="n">
-        <v>2111.257688031502</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="Y38" t="n">
-        <v>1721.11835605569</v>
+        <v>1847.166318653367</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I39" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J39" t="n">
         <v>109.2358024440161</v>
       </c>
       <c r="K39" t="n">
-        <v>440.0794156989579</v>
+        <v>288.9454078621916</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.575048691645</v>
+        <v>841.7029301358423</v>
       </c>
       <c r="M39" t="n">
-        <v>1411.972652940317</v>
+        <v>1197.100534384514</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.185219170622</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.870836884379</v>
+        <v>2138.281785090959</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646088</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S39" t="n">
         <v>2354.581362957455</v>
@@ -7286,19 +7286,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W39" t="n">
         <v>1442.965435232206</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>474.3825360644062</v>
+        <v>516.9224334996212</v>
       </c>
       <c r="C40" t="n">
-        <v>305.4463531364993</v>
+        <v>516.9224334996212</v>
       </c>
       <c r="D40" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="E40" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F40" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I40" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490679</v>
@@ -7359,25 +7359,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1530.695901128217</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T40" t="n">
-        <v>1307.603979978032</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>1018.484194307254</v>
+        <v>899.917221754013</v>
       </c>
       <c r="V40" t="n">
-        <v>763.7997061013668</v>
+        <v>645.2327335481261</v>
       </c>
       <c r="W40" t="n">
-        <v>474.3825360644062</v>
+        <v>516.9224334996212</v>
       </c>
       <c r="X40" t="n">
-        <v>474.3825360644062</v>
+        <v>516.9224334996212</v>
       </c>
       <c r="Y40" t="n">
-        <v>474.3825360644062</v>
+        <v>516.9224334996212</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>777.0460444758642</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="C41" t="n">
-        <v>408.0835275354525</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870199</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870199</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.8914464351</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="V41" t="n">
-        <v>2280.019630046992</v>
+        <v>1996.796916617567</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.250974776877</v>
+        <v>1996.796916617567</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.785216515798</v>
+        <v>1623.331158356487</v>
       </c>
       <c r="Y41" t="n">
-        <v>1163.645884539986</v>
+        <v>1233.191826380676</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416507</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>550.7659925046444</v>
+        <v>583.0451988570717</v>
       </c>
       <c r="L42" t="n">
-        <v>838.7302756873071</v>
+        <v>871.0094820397344</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.127879935979</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.185219170621</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.870836884379</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646088</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.7837448513377</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="C43" t="n">
-        <v>347.8475619234308</v>
+        <v>664.8355270820143</v>
       </c>
       <c r="D43" t="n">
-        <v>197.7309225110951</v>
+        <v>514.7188876696786</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870199</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870199</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490679</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204927</v>
+        <v>1122.891495680699</v>
       </c>
       <c r="U43" t="n">
-        <v>1609.220368204927</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="V43" t="n">
-        <v>1436.631509760085</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="W43" t="n">
-        <v>1147.214339723125</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="X43" t="n">
-        <v>919.2247888251076</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="Y43" t="n">
-        <v>698.4322096815774</v>
+        <v>833.7717100099212</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1573.820201863716</v>
+        <v>1307.098692798519</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.857684923304</v>
+        <v>1307.098692798519</v>
       </c>
       <c r="D44" t="n">
-        <v>846.5919863165539</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E44" t="n">
-        <v>460.8037337183096</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G44" t="n">
         <v>49.81782892870199</v>
@@ -7648,16 +7648,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819828</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799483</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
         <v>1613.248129085907</v>
@@ -7675,25 +7675,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326146</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520224</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V44" t="n">
-        <v>1573.820201863716</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="W44" t="n">
-        <v>1573.820201863716</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="X44" t="n">
-        <v>1573.820201863716</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="Y44" t="n">
-        <v>1573.820201863716</v>
+        <v>1307.098692798519</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416507</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605237</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992724</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938169</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207019</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>93.2457681900575</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
         <v>49.81782892870199</v>
@@ -7727,52 +7727,52 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>288.9454078621915</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L45" t="n">
-        <v>576.9096910448542</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M45" t="n">
-        <v>1193.405324037542</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R45" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957454</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779001</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.35490019215</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960407</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026673</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261719</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>770.3272659581434</v>
+        <v>937.1985917043911</v>
       </c>
       <c r="C46" t="n">
-        <v>601.3910830302365</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="D46" t="n">
-        <v>451.2744436179007</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E46" t="n">
-        <v>303.3613500355076</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F46" t="n">
-        <v>156.4714025375973</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4714025375973</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H46" t="n">
         <v>156.4714025375973</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U46" t="n">
-        <v>991.1198451016735</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V46" t="n">
-        <v>991.1198451016735</v>
+        <v>1157.991170847921</v>
       </c>
       <c r="W46" t="n">
-        <v>991.1198451016735</v>
+        <v>1157.991170847921</v>
       </c>
       <c r="X46" t="n">
-        <v>991.1198451016735</v>
+        <v>1157.991170847921</v>
       </c>
       <c r="Y46" t="n">
-        <v>770.3272659581434</v>
+        <v>937.1985917043911</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>274.433174533638</v>
+        <v>9.967937521059611</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>170.9794606140157</v>
       </c>
       <c r="P15" t="n">
-        <v>9.967937521058644</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>9.967937521058715</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>118.7395615125293</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.679865416548</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>116.5915113372859</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>72.89368480302807</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7.177264930046107</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.2358239962564</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.86162232408611</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.89368480302861</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>221.2358239962564</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>244.23718140336</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930045311</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302812</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>39.80747155040895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>221.2358239962559</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948636</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.177264930045339</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>72.89368480302807</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>39.80747155040895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>243.873145417043</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948636</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>22.88434839053377</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>32.60525894184536</v>
+        <v>116.5915113372859</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>22.88434839053377</v>
@@ -10904,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>152.6606139765316</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>331.8498482929541</v>
+        <v>267.4679182737253</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.679865416548</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140155</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>220.0452252569067</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.9794606140147</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>10.69779196392381</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6785616007561</v>
+        <v>237.1617384457322</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -23311,10 +23311,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.51131139434487</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>141.3565515044935</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>331.3979017165746</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>115.4046240474333</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>117.3644146808118</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>72.45382561272396</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>163.1926105264474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>131.5238103856268</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>162.0849635348018</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>270.414851494287</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.0582305709509</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>250.7286365784658</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>71.44310047544728</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.6801454205802</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>22.62915326606247</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>189.0423250762113</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>102.0595521185133</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.66553334983959</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>16.63793074666262</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>164.0895019206299</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>67.96895394968161</v>
@@ -24496,16 +24496,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>116.0458668460204</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>245.0533180016093</v>
       </c>
       <c r="V28" t="n">
-        <v>45.6813965278084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>159.3592483968851</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>101.724171372587</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.5113113943444</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>93.87405199956834</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>183.5931046868103</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24973,13 +24973,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>102.0595521185137</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.14511603534424</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -25134,16 +25134,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>49.84826007812507</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>78.62675035160146</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>85.10853166148263</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298342</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I36" t="n">
         <v>21.30239922246435</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.3479235552864</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>97.99157072773529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>158.4545935361748</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>265.7811266154023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.44310047544775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>117.3813028277082</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>159.4958012885711</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.6062992654567</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>118.9891602459079</v>
+        <v>214.4360947703391</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>71.44310047544738</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>37.25535661529514</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>81.27467346343477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>310.3877014689946</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.603838290191675</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.14070125298387</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246435</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>193.0300103561299</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>26.28173987907493</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691841.4710927546</v>
+        <v>691841.4710927547</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>704314.9454968006</v>
+        <v>704314.9454968005</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691841.4710927546</v>
+        <v>691841.4710927547</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691841.4710927546</v>
+        <v>691841.4710927547</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927545</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="F2" t="n">
         <v>376472.9640493382</v>
       </c>
       <c r="G2" t="n">
+        <v>376472.9640493381</v>
+      </c>
+      <c r="H2" t="n">
         <v>376472.9640493382</v>
       </c>
-      <c r="H2" t="n">
-        <v>376472.9640493383</v>
-      </c>
       <c r="I2" t="n">
+        <v>381920.5004605912</v>
+      </c>
+      <c r="J2" t="n">
+        <v>381920.500460591</v>
+      </c>
+      <c r="K2" t="n">
         <v>381920.5004605909</v>
       </c>
-      <c r="J2" t="n">
-        <v>381920.5004605911</v>
-      </c>
-      <c r="K2" t="n">
-        <v>381920.5004605911</v>
-      </c>
       <c r="L2" t="n">
-        <v>381920.5004605909</v>
+        <v>381920.5004605908</v>
       </c>
       <c r="M2" t="n">
-        <v>376472.9640493381</v>
+        <v>376472.9640493382</v>
       </c>
       <c r="N2" t="n">
         <v>376472.9640493382</v>
       </c>
       <c r="O2" t="n">
-        <v>376472.964049338</v>
+        <v>376472.9640493382</v>
       </c>
       <c r="P2" t="n">
         <v>376472.9640493382</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648166</v>
+        <v>4895.439270648106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,25 +26438,25 @@
         <v>14698.070110428</v>
       </c>
       <c r="I4" t="n">
+        <v>17379.31851853779</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17379.31851853778</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17379.31851853776</v>
+      </c>
+      <c r="L4" t="n">
         <v>17379.31851853777</v>
       </c>
-      <c r="J4" t="n">
-        <v>17379.31851853779</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17379.31851853777</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17379.31851853776</v>
-      </c>
       <c r="M4" t="n">
-        <v>14698.07011042799</v>
+        <v>14698.070110428</v>
       </c>
       <c r="N4" t="n">
-        <v>14698.07011042799</v>
+        <v>14698.070110428</v>
       </c>
       <c r="O4" t="n">
-        <v>14698.07011042799</v>
+        <v>14698.070110428</v>
       </c>
       <c r="P4" t="n">
         <v>14698.07011042799</v>
@@ -26490,7 +26490,7 @@
         <v>57906.41050425676</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253835</v>
       </c>
       <c r="J5" t="n">
         <v>59025.70047253835</v>
@@ -26502,13 +26502,13 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="P5" t="n">
         <v>57906.41050425675</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69023.08336176237</v>
+        <v>68978.94758308119</v>
       </c>
       <c r="C6" t="n">
-        <v>69023.08336176249</v>
+        <v>68978.94758308124</v>
       </c>
       <c r="D6" t="n">
-        <v>69023.08336176243</v>
+        <v>68978.9475830813</v>
       </c>
       <c r="E6" t="n">
-        <v>-620783.0959414707</v>
+        <v>-626250.2216261042</v>
       </c>
       <c r="F6" t="n">
-        <v>303868.4834346534</v>
+        <v>298401.3577500199</v>
       </c>
       <c r="G6" t="n">
-        <v>303868.4834346535</v>
+        <v>298401.3577500198</v>
       </c>
       <c r="H6" t="n">
-        <v>303868.4834346535</v>
+        <v>298401.3577500199</v>
       </c>
       <c r="I6" t="n">
-        <v>300620.0421988665</v>
+        <v>295370.8179706834</v>
       </c>
       <c r="J6" t="n">
-        <v>305515.481469515</v>
+        <v>300266.2572413314</v>
       </c>
       <c r="K6" t="n">
-        <v>305515.4814695149</v>
+        <v>300266.2572413313</v>
       </c>
       <c r="L6" t="n">
-        <v>305515.4814695148</v>
+        <v>300266.2572413312</v>
       </c>
       <c r="M6" t="n">
-        <v>153271.1451877948</v>
+        <v>147804.0195031609</v>
       </c>
       <c r="N6" t="n">
-        <v>303868.4834346535</v>
+        <v>298401.3577500199</v>
       </c>
       <c r="O6" t="n">
-        <v>303868.4834346533</v>
+        <v>298401.3577500199</v>
       </c>
       <c r="P6" t="n">
-        <v>303868.4834346535</v>
+        <v>298401.35775002</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
         <v>641.1322360870909</v>
@@ -26822,13 +26822,13 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087749</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831561</v>
+        <v>18.40937447831539</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304577</v>
+        <v>604.3134871304596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>60.01815506597379</v>
       </c>
       <c r="K12" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158208</v>
@@ -35506,7 +35506,7 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>518.125868232334</v>
+        <v>253.6606312197557</v>
       </c>
       <c r="Q12" t="n">
         <v>322.5559691322457</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158209</v>
@@ -35740,16 +35740,16 @@
         <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179365</v>
+        <v>498.9447310319522</v>
       </c>
       <c r="P15" t="n">
-        <v>253.6606312197548</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>69.98609258703253</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>329.8669931509815</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158209</v>
@@ -36202,7 +36202,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K21" t="n">
-        <v>300.2644154702824</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158209</v>
@@ -36211,7 +36211,7 @@
         <v>358.9874790390624</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087751</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
         <v>327.9652704179365</v>
@@ -36220,10 +36220,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963966</v>
+        <v>229.0701927336825</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>503.0453391921679</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
@@ -36378,10 +36378,10 @@
         <v>300.3194450962881</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605026</v>
+        <v>184.0453210905487</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722504</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>402.7606779540095</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158209</v>
@@ -36454,7 +36454,7 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P24" t="n">
-        <v>326.5543160227822</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
         <v>322.5559691322457</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575409</v>
@@ -36615,7 +36615,7 @@
         <v>300.3194450962881</v>
       </c>
       <c r="Q26" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
         <v>16.61085138722504</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540095</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158209</v>
@@ -36685,16 +36685,16 @@
         <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>627.2801775955871</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>641.1322360870909</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>22.63732142078705</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969962</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575409</v>
@@ -36840,7 +36840,7 @@
         <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845875</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891399</v>
@@ -36855,7 +36855,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722504</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>99.82562661638276</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K30" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540089</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158209</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179365</v>
@@ -36931,10 +36931,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>257.2882208875862</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161277</v>
@@ -37080,7 +37080,7 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891399</v>
+        <v>503.0453391921679</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
@@ -37092,7 +37092,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020748</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>99.82562661638276</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>425.397999374796</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158209</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179365</v>
@@ -37168,7 +37168,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161277</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L36" t="n">
-        <v>323.4782722576662</v>
+        <v>407.4645246531068</v>
       </c>
       <c r="M36" t="n">
         <v>358.9874790390624</v>
@@ -37405,7 +37405,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891399</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>60.01815506597381</v>
       </c>
       <c r="K39" t="n">
-        <v>334.1854679342846</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>622.722861608775</v>
+        <v>558.3409315895461</v>
       </c>
       <c r="M39" t="n">
         <v>358.9874790390624</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179365</v>
@@ -37645,7 +37645,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717685</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158209</v>
@@ -37870,7 +37870,7 @@
         <v>358.9874790390624</v>
       </c>
       <c r="N42" t="n">
-        <v>603.0882214491339</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179365</v>
@@ -37879,10 +37879,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669503</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575409</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>352.5043145717677</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>622.7228616087749</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
-        <v>393.740788156151</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O45" t="n">
         <v>327.9652704179365</v>
@@ -38119,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1213890.600786208</v>
+        <v>1241355.944751211</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584554</v>
+        <v>6486630.972584563</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8885150.026854105</v>
+        <v>8885150.026854103</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>128.1111533252754</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>115.4983671074301</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128684</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>154.3681652355359</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>53.76397372915823</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>77.22810184760125</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.53246835568724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>123.1675086773159</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216742162</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>30.12078641210115</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>142.3141266689004</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>196.2284480845081</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>42.71352543370399</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>154.3681652355359</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>134.2395953018562</v>
       </c>
     </row>
     <row r="19">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>5.16185756382603</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.7929954859036</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>131.201733493796</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.6087190253477</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.09008317442006</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>84.35310388454363</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>263.599434548008</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>144.2352099914827</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>148.9903857293489</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>48.24006794777905</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>269.8850675899284</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>215.2487162384228</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>211.7063916241145</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>41.17526981246121</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7350168619834</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>247.5167973448263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>317.8997445343528</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.0646778608314</v>
       </c>
       <c r="U31" t="n">
-        <v>192.3545358145021</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>148.9903857293485</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>213.2346841195678</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>121.4007741925894</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>236.6747382584659</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>216.5101222297662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>143.6270118773026</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874283</v>
+        <v>21.69126064627758</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.98496085879815</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>193.5585988966595</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>223.475776536087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>145.6597320411203</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388967</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>77.22810184760127</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>127.0271970480199</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>98.76055359923949</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>113.3161636997958</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>101.2653985128684</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>183.6056453233877</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>77.22810184760129</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>44.29534015168834</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>20.87224906941941</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.806281389885</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>225.8559034447531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>124.8634259883403</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1310.63818471021</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C11" t="n">
-        <v>1181.232979331143</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.232979331143</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E11" t="n">
-        <v>1181.232979331143</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F11" t="n">
-        <v>770.247074541536</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H11" t="n">
         <v>49.81782892870201</v>
@@ -5044,16 +5044,16 @@
         <v>181.1756535819845</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799497</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549163</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M11" t="n">
         <v>1187.39799124066</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O11" t="n">
         <v>2002.031077317525</v>
@@ -5071,22 +5071,22 @@
         <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U11" t="n">
-        <v>2028.300912117902</v>
+        <v>2374.226429154868</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.238024774331</v>
+        <v>2374.226429154868</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.238024774331</v>
+        <v>2021.457773884754</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.238024774331</v>
+        <v>2021.457773884754</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.238024774331</v>
+        <v>1631.318441908942</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C12" t="n">
         <v>756.8500179155219</v>
@@ -5120,28 +5120,28 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>550.7659925046443</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L12" t="n">
-        <v>838.7302756873069</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.127879935978</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.340446166283</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O12" t="n">
-        <v>1898.02606388004</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787598</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435101</v>
@@ -5153,19 +5153,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="13">
@@ -5226,22 +5226,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1554.91332403406</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.821402883875</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U13" t="n">
-        <v>1042.701617213097</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V13" t="n">
-        <v>788.0171290072101</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W13" t="n">
-        <v>498.5999589702495</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X13" t="n">
-        <v>270.6104080722321</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y13" t="n">
         <v>49.81782892870201</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1601.238393600532</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.275876660121</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.275876660121</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.232979331143</v>
+        <v>585.2153586448912</v>
       </c>
       <c r="F14" t="n">
-        <v>770.247074541536</v>
+        <v>174.2294538552837</v>
       </c>
       <c r="G14" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837424</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.843483837424</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.843483837424</v>
+        <v>1697.238024774329</v>
       </c>
       <c r="W14" t="n">
-        <v>2364.843483837424</v>
+        <v>1344.469369504215</v>
       </c>
       <c r="X14" t="n">
-        <v>1991.377725576344</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="Y14" t="n">
-        <v>1601.238393600532</v>
+        <v>971.0036112431355</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
         <v>302.1435952757001</v>
@@ -5351,37 +5351,37 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>413.7755328491963</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L15" t="n">
-        <v>701.7398160318589</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M15" t="n">
-        <v>1057.137420280531</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N15" t="n">
-        <v>1436.349986510836</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
         <v>2426.746110912452</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.9094538771789</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="C16" t="n">
-        <v>354.9094538771789</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="D16" t="n">
-        <v>354.9094538771789</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="E16" t="n">
-        <v>354.9094538771789</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F16" t="n">
-        <v>354.9094538771789</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G16" t="n">
-        <v>186.8964393174975</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5463,25 +5463,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T16" t="n">
-        <v>1308.351743482101</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U16" t="n">
-        <v>1019.231957811323</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="V16" t="n">
-        <v>764.5474696054359</v>
+        <v>738.5469880852022</v>
       </c>
       <c r="W16" t="n">
-        <v>764.5474696054359</v>
+        <v>594.7953449853028</v>
       </c>
       <c r="X16" t="n">
-        <v>536.5579187074186</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.5579187074186</v>
+        <v>366.8057940872854</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1262.35592496853</v>
+        <v>1109.233905428215</v>
       </c>
       <c r="C17" t="n">
-        <v>1262.35592496853</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="D17" t="n">
-        <v>1262.35592496853</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E17" t="n">
-        <v>876.5676723702861</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F17" t="n">
-        <v>465.5817675806785</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549153</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435101</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U17" t="n">
-        <v>2237.305650629179</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="V17" t="n">
-        <v>2039.095097008464</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="W17" t="n">
-        <v>2039.095097008464</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="X17" t="n">
-        <v>2039.095097008464</v>
+        <v>1885.973077468149</v>
       </c>
       <c r="Y17" t="n">
-        <v>1648.955765032652</v>
+        <v>1495.833745492337</v>
       </c>
     </row>
     <row r="18">
@@ -5591,52 +5591,52 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>560.6342506504925</v>
+        <v>550.7659925046443</v>
       </c>
       <c r="L18" t="n">
-        <v>848.5985338331552</v>
+        <v>838.7302756873069</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.996138081827</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.208704312132</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025889</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787598</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.518384216717</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>501.0133639770684</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="C19" t="n">
-        <v>495.7993664378502</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="D19" t="n">
-        <v>345.6827270255144</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="E19" t="n">
-        <v>345.6827270255144</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="F19" t="n">
-        <v>198.792779527604</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5703,22 +5703,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1386.128447054743</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>1386.128447054743</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.443958848856</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W19" t="n">
-        <v>1131.443958848856</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X19" t="n">
-        <v>903.4544079508382</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y19" t="n">
-        <v>682.6618288073081</v>
+        <v>327.2167942497534</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1378.057192839785</v>
+        <v>418.7803458691137</v>
       </c>
       <c r="C20" t="n">
-        <v>1009.094675899373</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D20" t="n">
-        <v>1009.094675899373</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E20" t="n">
-        <v>876.5676723702861</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F20" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549159</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U20" t="n">
-        <v>2490.891446435101</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V20" t="n">
-        <v>2490.891446435101</v>
+        <v>1921.753931440241</v>
       </c>
       <c r="W20" t="n">
-        <v>2138.122791164986</v>
+        <v>1568.985276170127</v>
       </c>
       <c r="X20" t="n">
-        <v>1764.657032903906</v>
+        <v>1195.519517909047</v>
       </c>
       <c r="Y20" t="n">
-        <v>1764.657032903906</v>
+        <v>805.3801859332355</v>
       </c>
     </row>
     <row r="21">
@@ -5828,55 +5828,55 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>675.5961174916491</v>
+        <v>531.3276987466003</v>
       </c>
       <c r="L21" t="n">
-        <v>963.5604006743117</v>
+        <v>819.2919819292629</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.958004922983</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.170571153288</v>
+        <v>1791.185219170622</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.856188867046</v>
+        <v>2115.870836884379</v>
       </c>
       <c r="P21" t="n">
-        <v>2264.111955628755</v>
+        <v>2357.126603646088</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.7485639254385</v>
+        <v>135.022984367635</v>
       </c>
       <c r="C22" t="n">
-        <v>663.8123809975316</v>
+        <v>135.022984367635</v>
       </c>
       <c r="D22" t="n">
-        <v>513.6957415851958</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E22" t="n">
-        <v>513.6957415851958</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F22" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G22" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1342.958313105929</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V22" t="n">
-        <v>1342.958313105929</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W22" t="n">
-        <v>1053.541143068968</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X22" t="n">
-        <v>1053.541143068968</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="Y22" t="n">
-        <v>832.7485639254385</v>
+        <v>135.022984367635</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1263.828674926796</v>
+        <v>951.7334797301512</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.828674926796</v>
+        <v>582.7709627897395</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.828674926796</v>
+        <v>582.7709627897395</v>
       </c>
       <c r="E23" t="n">
-        <v>878.0404223285514</v>
+        <v>196.9827101914953</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0545175389437</v>
+        <v>196.9827101914953</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382141</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131807</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M23" t="n">
         <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.50382727579</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921115</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6019,22 +6019,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>2414.033605227809</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V23" t="n">
-        <v>2414.033605227809</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="W23" t="n">
-        <v>2414.033605227809</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="X23" t="n">
-        <v>2040.567846966729</v>
+        <v>1728.472651770085</v>
       </c>
       <c r="Y23" t="n">
-        <v>1650.428514990917</v>
+        <v>1338.333319794273</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737866</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070796</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>235.5386773892861</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>634.2717485637554</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L24" t="n">
         <v>922.2360317464181</v>
@@ -6095,19 +6095,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X24" t="n">
         <v>1308.751432939936</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>814.1213929064154</v>
+        <v>268.9541031762672</v>
       </c>
       <c r="C25" t="n">
-        <v>645.1852099785085</v>
+        <v>100.0179202483602</v>
       </c>
       <c r="D25" t="n">
-        <v>495.0685705661728</v>
+        <v>100.0179202483602</v>
       </c>
       <c r="E25" t="n">
-        <v>347.1554769837796</v>
+        <v>100.0179202483602</v>
       </c>
       <c r="F25" t="n">
-        <v>200.2655294858693</v>
+        <v>100.0179202483602</v>
       </c>
       <c r="G25" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6174,25 +6174,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.732572290181</v>
+        <v>1283.824011920133</v>
       </c>
       <c r="U25" t="n">
-        <v>1086.732572290181</v>
+        <v>994.7042262493543</v>
       </c>
       <c r="V25" t="n">
-        <v>1086.732572290181</v>
+        <v>740.0197380434674</v>
       </c>
       <c r="W25" t="n">
-        <v>814.1213929064154</v>
+        <v>450.6025680065068</v>
       </c>
       <c r="X25" t="n">
-        <v>814.1213929064154</v>
+        <v>450.6025680065068</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.1213929064154</v>
+        <v>450.6025680065068</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>771.7198244998012</v>
+        <v>654.5017771805881</v>
       </c>
       <c r="C26" t="n">
-        <v>771.7198244998012</v>
+        <v>654.5017771805881</v>
       </c>
       <c r="D26" t="n">
-        <v>771.7198244998012</v>
+        <v>654.5017771805881</v>
       </c>
       <c r="E26" t="n">
-        <v>771.7198244998012</v>
+        <v>268.7135245823438</v>
       </c>
       <c r="F26" t="n">
-        <v>771.7198244998012</v>
+        <v>268.7135245823438</v>
       </c>
       <c r="G26" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952466</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932121</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681786</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153922</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6247,7 +6247,7 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
@@ -6259,19 +6259,19 @@
         <v>2355.524205837086</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.938410031165</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V26" t="n">
-        <v>1888.093570006807</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="W26" t="n">
-        <v>1535.324914736693</v>
+        <v>1418.10686741748</v>
       </c>
       <c r="X26" t="n">
-        <v>1161.859156475613</v>
+        <v>1044.6411091564</v>
       </c>
       <c r="Y26" t="n">
-        <v>771.7198244998012</v>
+        <v>654.5017771805881</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>235.5386773892861</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>634.2717485637554</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L27" t="n">
-        <v>922.2360317464181</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.63363599509</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.846202225395</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.531819939152</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P27" t="n">
-        <v>2222.787586700861</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>938.6713416626563</v>
+        <v>516.3101803568948</v>
       </c>
       <c r="C28" t="n">
-        <v>769.7351587347495</v>
+        <v>516.3101803568948</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>366.193540944559</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="U28" t="n">
-        <v>1569.101936534443</v>
+        <v>1124.481892862462</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.101936534443</v>
+        <v>1124.481892862462</v>
       </c>
       <c r="W28" t="n">
-        <v>1569.101936534443</v>
+        <v>835.0647228255016</v>
       </c>
       <c r="X28" t="n">
-        <v>1341.112385636426</v>
+        <v>835.0647228255016</v>
       </c>
       <c r="Y28" t="n">
-        <v>1120.319806492896</v>
+        <v>697.9586451871345</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1414.32401404735</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="C29" t="n">
-        <v>1045.361497106938</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="D29" t="n">
-        <v>687.0957985001876</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E29" t="n">
-        <v>301.3075459019433</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F29" t="n">
-        <v>51.29057888696726</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
         <v>51.29057888696726</v>
@@ -6463,22 +6463,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>189.7538958209935</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>437.363742218959</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L29" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N29" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O29" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P29" t="n">
         <v>2307.92557020186</v>
@@ -6490,25 +6490,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>1654.779594368485</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>1654.779594368485</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.063186087283</v>
+        <v>1654.779594368485</v>
       </c>
       <c r="Y29" t="n">
-        <v>1800.923854111471</v>
+        <v>1264.640262392673</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>235.5386773892861</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>634.271748563755</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L30" t="n">
-        <v>922.2360317464177</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.633635995089</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N30" t="n">
-        <v>1656.846202225394</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O30" t="n">
         <v>1981.531819939152</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7602081358474</v>
+        <v>665.2851309557968</v>
       </c>
       <c r="C31" t="n">
-        <v>620.7602081358474</v>
+        <v>665.2851309557968</v>
       </c>
       <c r="D31" t="n">
-        <v>620.7602081358474</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="E31" t="n">
-        <v>472.8471145534543</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F31" t="n">
-        <v>325.9571670555439</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9441524958625</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958625</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1506.915933070317</v>
+        <v>1498.506574869423</v>
       </c>
       <c r="U31" t="n">
-        <v>1312.618422146578</v>
+        <v>1209.386789198644</v>
       </c>
       <c r="V31" t="n">
-        <v>1312.618422146578</v>
+        <v>954.7023009927575</v>
       </c>
       <c r="W31" t="n">
-        <v>1023.201252109617</v>
+        <v>665.2851309557968</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.201252109617</v>
+        <v>665.2851309557968</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.4086729660871</v>
+        <v>665.2851309557968</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.828674926796</v>
+        <v>1236.306120935302</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.828674926796</v>
+        <v>1236.306120935302</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E32" t="n">
         <v>878.0404223285514</v>
@@ -6700,28 +6700,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382141</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131807</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M32" t="n">
         <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6733,19 +6733,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2414.033605227809</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2414.033605227809</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>2414.033605227809</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.567846966729</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.428514990917</v>
+        <v>1622.905960999424</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.5386773892861</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>656.6826967703341</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L33" t="n">
-        <v>944.6469799529968</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.044584201669</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N33" t="n">
-        <v>1679.257150431974</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.942768145731</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>919.8517981470852</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="C34" t="n">
-        <v>919.8517981470852</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="D34" t="n">
-        <v>769.7351587347495</v>
+        <v>663.0815851258542</v>
       </c>
       <c r="E34" t="n">
-        <v>621.8220651523563</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F34" t="n">
-        <v>474.932117654446</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9191030947645</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H34" t="n">
-        <v>157.9441524958625</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304163</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6888,22 +6888,22 @@
         <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.601678533241</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.601678533241</v>
+        <v>1067.882712744077</v>
       </c>
       <c r="V34" t="n">
-        <v>1158.917190327354</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="W34" t="n">
-        <v>919.8517981470852</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="X34" t="n">
-        <v>919.8517981470852</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="Y34" t="n">
-        <v>919.8517981470852</v>
+        <v>813.1982245381899</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1406.729042426852</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="C35" t="n">
-        <v>1037.76652548644</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D35" t="n">
-        <v>679.5008268796896</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E35" t="n">
-        <v>679.5008268796896</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>268.5149220900821</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>268.5149220900821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
         <v>181.1756535819836</v>
@@ -6952,37 +6952,37 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U35" t="n">
-        <v>2111.257688031502</v>
+        <v>2010.760955551093</v>
       </c>
       <c r="V35" t="n">
-        <v>1780.194800687932</v>
+        <v>2010.760955551093</v>
       </c>
       <c r="W35" t="n">
-        <v>1780.194800687932</v>
+        <v>2010.760955551093</v>
       </c>
       <c r="X35" t="n">
-        <v>1406.729042426852</v>
+        <v>2010.760955551093</v>
       </c>
       <c r="Y35" t="n">
-        <v>1406.729042426852</v>
+        <v>1620.621623575281</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207028</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005841</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K36" t="n">
-        <v>675.5961174916491</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L36" t="n">
-        <v>1078.985996898225</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M36" t="n">
-        <v>1434.383601146897</v>
+        <v>1193.405324037541</v>
       </c>
       <c r="N36" t="n">
-        <v>1813.596167377201</v>
+        <v>1572.617890267846</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.281785090959</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852668</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.2687569237733</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="C37" t="n">
-        <v>549.3325739958664</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="D37" t="n">
-        <v>399.2159345835306</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E37" t="n">
-        <v>251.3028410011375</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F37" t="n">
-        <v>251.3028410011375</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G37" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1412.128928574976</v>
+        <v>1413.706631945675</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.037007424791</v>
+        <v>1190.61471079549</v>
       </c>
       <c r="U37" t="n">
-        <v>899.917221754013</v>
+        <v>1190.61471079549</v>
       </c>
       <c r="V37" t="n">
-        <v>899.917221754013</v>
+        <v>935.9302225896031</v>
       </c>
       <c r="W37" t="n">
-        <v>899.917221754013</v>
+        <v>646.5130525526425</v>
       </c>
       <c r="X37" t="n">
-        <v>899.917221754013</v>
+        <v>418.5235016546252</v>
       </c>
       <c r="Y37" t="n">
-        <v>899.917221754013</v>
+        <v>197.7309225110951</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1460.566478589246</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="C38" t="n">
-        <v>1460.566478589246</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D38" t="n">
-        <v>1102.300779982495</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549153</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435101</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="U38" t="n">
-        <v>2237.305650629179</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="V38" t="n">
-        <v>2237.305650629179</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="W38" t="n">
-        <v>2237.305650629179</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="X38" t="n">
-        <v>2237.305650629179</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="Y38" t="n">
-        <v>1847.166318653367</v>
+        <v>1953.62107199351</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207028</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621916</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L39" t="n">
-        <v>841.7029301358423</v>
+        <v>1078.985996898225</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.100534384514</v>
+        <v>1434.383601146896</v>
       </c>
       <c r="N39" t="n">
         <v>1813.596167377201</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090959</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852668</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.9224334996212</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C40" t="n">
-        <v>516.9224334996212</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D40" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E40" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F40" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G40" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7359,25 +7359,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574976</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
         <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>899.917221754013</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V40" t="n">
-        <v>645.2327335481261</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W40" t="n">
-        <v>516.9224334996212</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X40" t="n">
-        <v>516.9224334996212</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.9224334996212</v>
+        <v>127.8260126131477</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>846.5919863165539</v>
+        <v>1978.2436437733</v>
       </c>
       <c r="C41" t="n">
-        <v>846.5919863165539</v>
+        <v>1609.281126832889</v>
       </c>
       <c r="D41" t="n">
-        <v>846.5919863165539</v>
+        <v>1251.015428226138</v>
       </c>
       <c r="E41" t="n">
-        <v>460.8037337183096</v>
+        <v>865.2271756278938</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870201</v>
+        <v>454.2412708382862</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549157</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T41" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U41" t="n">
-        <v>2111.257688031502</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V41" t="n">
-        <v>1996.796916617567</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W41" t="n">
-        <v>1996.796916617567</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X41" t="n">
-        <v>1623.331158356487</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="Y41" t="n">
-        <v>1233.191826380676</v>
+        <v>2364.843483837422</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>583.0451988570717</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L42" t="n">
-        <v>871.0094820397344</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.407086288406</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.619652518711</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>833.7717100099212</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C43" t="n">
-        <v>664.8355270820143</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D43" t="n">
-        <v>514.7188876696786</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E43" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F43" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G43" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1122.891495680699</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U43" t="n">
-        <v>833.7717100099212</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V43" t="n">
-        <v>833.7717100099212</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W43" t="n">
-        <v>833.7717100099212</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X43" t="n">
-        <v>833.7717100099212</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y43" t="n">
-        <v>833.7717100099212</v>
+        <v>49.81782892870198</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1307.098692798519</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="C44" t="n">
-        <v>1307.098692798519</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.35592496853</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E44" t="n">
-        <v>876.5676723702861</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F44" t="n">
-        <v>465.5817675806785</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J44" t="n">
         <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.886707923823</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U44" t="n">
-        <v>2028.300912117901</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.23802477433</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.23802477433</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.23802477433</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1307.098692798519</v>
+        <v>1953.62107199351</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C45" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570708</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397335</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.61965251871</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232467</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T45" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W45" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>937.1985917043911</v>
+        <v>198.792779527604</v>
       </c>
       <c r="C46" t="n">
-        <v>768.2624087764842</v>
+        <v>198.792779527604</v>
       </c>
       <c r="D46" t="n">
-        <v>768.2624087764842</v>
+        <v>198.792779527604</v>
       </c>
       <c r="E46" t="n">
-        <v>620.3493151940911</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F46" t="n">
-        <v>473.4593676961807</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G46" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7836,22 +7836,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1386.128447054743</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U46" t="n">
-        <v>1386.128447054743</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V46" t="n">
-        <v>1157.991170847921</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W46" t="n">
-        <v>1157.991170847921</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X46" t="n">
-        <v>1157.991170847921</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.1985917043911</v>
+        <v>198.792779527604</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.967937521059611</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372863</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>170.9794606140157</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>148.3421391932285</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>242.6825466776949</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>118.7395615125293</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>239.6798654165478</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.5915113372859</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930046107</v>
+        <v>7.177264930046221</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.2358239962564</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.89368480302826</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>72.89368480302903</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.2358239962564</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>189.4851961403141</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.177264930045311</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>7.177264930046249</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.2358239962559</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>72.89368480302807</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930046221</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.873145417043</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>116.5915113372859</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>263.7353825697127</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>243.4124011205602</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>267.4679182737253</v>
+        <v>116.5915113372859</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.679865416548</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>170.9794606140155</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140147</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>237.1617384457322</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -23311,22 +23311,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>135.5515707404322</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>71.44310047544738</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>71.44310047544732</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>141.3565515044935</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>141.3565515044936</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.3979017165746</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>288.4387905881408</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.44310047544725</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.3644146808118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>144.2088716676906</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>131.5238103856268</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>327.0175752447651</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.44310047544732</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
     </row>
     <row r="19">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>162.0849635348018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>71.53988892818099</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23943,16 +23943,16 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>250.7286365784658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.1435394447872</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.44310047544728</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>64.26236913366873</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24177,16 +24177,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>22.62915326606247</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>267.371089273974</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>102.0595521185133</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>118.0928164663055</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.63793074666262</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>196.3575830270339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>116.0458668460204</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>245.0533180016093</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.84963649011138</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>159.3592483968851</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>9.852513935782099</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>109.7963240778514</v>
       </c>
       <c r="U31" t="n">
-        <v>93.87405199956834</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>102.0595521185137</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>173.0032545364858</v>
       </c>
     </row>
     <row r="33">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>164.8278136214811</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>49.84826007812507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>85.10853166148263</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>107.4229259705596</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298299</v>
+        <v>71.44310047544825</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.3479235552864</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -25362,25 +25362,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.561926336992229</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>158.4545935361748</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>61.25495908504408</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>71.44310047544826</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>102.603878334336</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>159.4958012885711</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>312.8457456662172</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>214.4360947703391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>71.44310047544738</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>37.25535661529514</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>141.3565515044935</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>310.3877014689946</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>348.8588516090496</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>50.14070125298387</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>26.28173987907493</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.72122736375452</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927544</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927544</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>704314.9454968006</v>
+        <v>704314.9454968004</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>704314.9454968005</v>
+        <v>704314.9454968006</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927545</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691841.4710927547</v>
+        <v>691841.4710927545</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
+        <v>512047.711698149</v>
+      </c>
+      <c r="D2" t="n">
         <v>512047.7116981489</v>
       </c>
-      <c r="D2" t="n">
-        <v>512047.711698149</v>
-      </c>
       <c r="E2" t="n">
+        <v>376472.9640493382</v>
+      </c>
+      <c r="F2" t="n">
         <v>376472.9640493381</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>376472.9640493382</v>
-      </c>
-      <c r="G2" t="n">
-        <v>376472.9640493381</v>
       </c>
       <c r="H2" t="n">
         <v>376472.9640493382</v>
@@ -26337,25 +26337,25 @@
         <v>381920.5004605912</v>
       </c>
       <c r="J2" t="n">
-        <v>381920.500460591</v>
+        <v>381920.5004605911</v>
       </c>
       <c r="K2" t="n">
         <v>381920.5004605909</v>
       </c>
       <c r="L2" t="n">
-        <v>381920.5004605908</v>
+        <v>381920.5004605911</v>
       </c>
       <c r="M2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="N2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="O2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="P2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.964049338</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648106</v>
+        <v>4895.439270648166</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468591</v>
+        <v>150597.338246859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>14698.07011042801</v>
+        <v>14698.070110428</v>
       </c>
       <c r="F4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042798</v>
       </c>
       <c r="G4" t="n">
         <v>14698.070110428</v>
       </c>
       <c r="H4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="I4" t="n">
-        <v>17379.31851853779</v>
+        <v>17379.3185185378</v>
       </c>
       <c r="J4" t="n">
-        <v>17379.31851853778</v>
+        <v>17379.3185185378</v>
       </c>
       <c r="K4" t="n">
-        <v>17379.31851853776</v>
+        <v>17379.3185185378</v>
       </c>
       <c r="L4" t="n">
-        <v>17379.31851853777</v>
+        <v>17379.3185185378</v>
       </c>
       <c r="M4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042799</v>
       </c>
       <c r="N4" t="n">
         <v>14698.070110428</v>
       </c>
       <c r="O4" t="n">
-        <v>14698.070110428</v>
+        <v>14698.07011042798</v>
       </c>
       <c r="P4" t="n">
-        <v>14698.07011042799</v>
+        <v>14698.07011042798</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253835</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253835</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425672</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68978.94758308119</v>
+        <v>69018.66978389426</v>
       </c>
       <c r="C6" t="n">
-        <v>68978.94758308124</v>
+        <v>69018.66978389438</v>
       </c>
       <c r="D6" t="n">
-        <v>68978.9475830813</v>
+        <v>69018.66978389426</v>
       </c>
       <c r="E6" t="n">
-        <v>-626250.2216261042</v>
+        <v>-621329.808509934</v>
       </c>
       <c r="F6" t="n">
-        <v>298401.3577500199</v>
+        <v>303321.7708661903</v>
       </c>
       <c r="G6" t="n">
-        <v>298401.3577500198</v>
+        <v>303321.7708661901</v>
       </c>
       <c r="H6" t="n">
-        <v>298401.3577500199</v>
+        <v>303321.7708661902</v>
       </c>
       <c r="I6" t="n">
-        <v>295370.8179706834</v>
+        <v>300095.1197760485</v>
       </c>
       <c r="J6" t="n">
-        <v>300266.2572413314</v>
+        <v>304990.5590466966</v>
       </c>
       <c r="K6" t="n">
-        <v>300266.2572413313</v>
+        <v>304990.5590466965</v>
       </c>
       <c r="L6" t="n">
-        <v>300266.2572413312</v>
+        <v>304990.5590466966</v>
       </c>
       <c r="M6" t="n">
-        <v>147804.0195031609</v>
+        <v>152724.4326193311</v>
       </c>
       <c r="N6" t="n">
-        <v>298401.3577500199</v>
+        <v>303321.77086619</v>
       </c>
       <c r="O6" t="n">
-        <v>298401.3577500199</v>
+        <v>303321.77086619</v>
       </c>
       <c r="P6" t="n">
-        <v>298401.35775002</v>
+        <v>303321.77086619</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26801,19 +26801,19 @@
         <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
         <v>641.1322360870907</v>
@@ -26822,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
     </row>
   </sheetData>
@@ -26971,7 +26971,7 @@
         <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.964942509355483e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831539</v>
+        <v>18.40937447831561</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304596</v>
+        <v>604.3134871304594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H17" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,31 +32308,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q19" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H20" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,31 +32545,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H23" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,31 +32782,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H26" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,31 +33019,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H29" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,31 +33256,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,31 +33493,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,31 +33730,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,31 +33967,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
         <v>445.9900909703316</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>253.6606312197557</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>229.0701927336829</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>498.9447310319522</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
@@ -35749,7 +35749,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722559</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8669931509815</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>486.3752403763909</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,19 +36050,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9900909703316</v>
+        <v>300.2644154702823</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.0701927336825</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,19 +36287,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
         <v>184.0453210905487</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>402.7606779540095</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
         <v>243.6926936986961</v>
@@ -36460,7 +36460,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,19 +36524,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699792</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>420.4529489191567</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>402.7606779540095</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322457</v>
+        <v>301.9638775367106</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,19 +36761,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.8619362969962</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962881</v>
+        <v>307.4967100263343</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020748</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>402.7606779540089</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
@@ -36934,7 +36934,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,19 +36998,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
-        <v>503.0453391921679</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605026</v>
+        <v>184.0453210905487</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722504</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>425.397999374796</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37171,7 +37171,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,19 +37235,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L36" t="n">
-        <v>407.4645246531068</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390624</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179365</v>
+        <v>571.3776715384965</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,19 +37472,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
         <v>16.61085138722559</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
-        <v>558.3409315895461</v>
+        <v>407.4645246531067</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087751</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,19 +37709,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5043145717685</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
@@ -37882,7 +37882,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717677</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
         <v>243.6926936986961</v>
@@ -38119,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N46" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
